--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -6,63 +6,36 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tính Lương Nhân Viên" r:id="rId3" sheetId="1"/>
+    <sheet name="Tổng Doanh Thu Theo Năm" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Mã Nhân Viên</t>
+    <t>Ngày</t>
   </si>
   <si>
-    <t>Tên Nhân Viên</t>
+    <t>Tổng Doanh Thu</t>
   </si>
   <si>
-    <t>Chức Vụ</t>
+    <t>2019</t>
   </si>
   <si>
-    <t>Ngày Nhận</t>
+    <t>1.49694777E8</t>
   </si>
   <si>
-    <t>Số Ca</t>
+    <t>2020</t>
   </si>
   <si>
-    <t>Lương</t>
+    <t>7.1185E7</t>
   </si>
   <si>
-    <t>NV013</t>
+    <t>2021</t>
   </si>
   <si>
-    <t>Đặng Trúc Lâm</t>
-  </si>
-  <si>
-    <t>Nhân viên Kế Toán</t>
-  </si>
-  <si>
-    <t>Mon Dec 20 18:03:18 ICT 2021</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>250000.0</t>
-  </si>
-  <si>
-    <t>NV012</t>
-  </si>
-  <si>
-    <t>Đỗ Ánh Dương</t>
-  </si>
-  <si>
-    <t>Nhân viên Kiểm Tra</t>
-  </si>
-  <si>
-    <t>Mon Dec 20 18:03:22 ICT 2021</t>
-  </si>
-  <si>
-    <t>200000.0</t>
+    <t>6.4625E7</t>
   </si>
 </sst>
 </file>
@@ -107,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,42 +88,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
